--- a/teaching/traditional_assets/database/data/slovenia/slovenia_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/slovenia/slovenia_insurance_prop_cas.xlsx
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.136</v>
-      </c>
-      <c r="E2">
-        <v>0.782</v>
+        <v>-0.602</v>
       </c>
       <c r="G2">
-        <v>-0.00654911838790932</v>
+        <v>33.93939393939394</v>
       </c>
       <c r="H2">
-        <v>-0.00654911838790932</v>
+        <v>33.93939393939394</v>
       </c>
       <c r="I2">
-        <v>0.922544080604534</v>
+        <v>-0.372960372960373</v>
       </c>
       <c r="J2">
-        <v>0.8254694131969451</v>
+        <v>-0.372960372960373</v>
       </c>
       <c r="K2">
-        <v>126.5</v>
+        <v>-5.19</v>
       </c>
       <c r="L2">
-        <v>0.7965994962216624</v>
+        <v>-1.20979020979021</v>
       </c>
       <c r="M2">
-        <v>17.1</v>
+        <v>92.94</v>
       </c>
       <c r="N2">
-        <v>0.07206068268015171</v>
+        <v>0.5830614805520702</v>
       </c>
       <c r="O2">
-        <v>0.1351778656126482</v>
+        <v>-17.90751445086705</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>82.44</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.5171894604767879</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-15.88439306358381</v>
       </c>
       <c r="S2">
-        <v>17.1</v>
+        <v>10.5</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.1129761136216914</v>
       </c>
       <c r="U2">
-        <v>101.7</v>
+        <v>27</v>
       </c>
       <c r="V2">
-        <v>0.4285714285714285</v>
+        <v>0.1693851944792974</v>
       </c>
       <c r="W2">
-        <v>0.8778625954198473</v>
+        <v>-0.02087691069991955</v>
       </c>
       <c r="X2">
-        <v>0.05352642636329823</v>
+        <v>0.04821709766681308</v>
       </c>
       <c r="Y2">
-        <v>0.8243361690565492</v>
+        <v>-0.06909400836673263</v>
       </c>
       <c r="Z2">
-        <v>1.033181522446324</v>
+        <v>0.02879561823319753</v>
       </c>
       <c r="AA2">
-        <v>0.8528597450596934</v>
+        <v>-0.01073962451587787</v>
       </c>
       <c r="AB2">
-        <v>0.05340153631364352</v>
+        <v>0.04801944750369452</v>
       </c>
       <c r="AC2">
-        <v>0.7994582087460499</v>
+        <v>-0.05875907201957239</v>
       </c>
       <c r="AD2">
-        <v>2.51</v>
+        <v>2.08</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.51</v>
+        <v>2.08</v>
       </c>
       <c r="AG2">
-        <v>-99.19</v>
+        <v>-24.92</v>
       </c>
       <c r="AH2">
-        <v>0.01046661940703057</v>
+        <v>0.01288085211790934</v>
       </c>
       <c r="AI2">
-        <v>0.009995619449643582</v>
+        <v>0.01406545847984852</v>
       </c>
       <c r="AJ2">
-        <v>-0.7181956411556005</v>
+        <v>-0.1853063652587745</v>
       </c>
       <c r="AK2">
-        <v>-0.6638779198179506</v>
+        <v>-0.2061548643282594</v>
       </c>
       <c r="AL2">
-        <v>2.05</v>
+        <v>0.147</v>
       </c>
       <c r="AM2">
-        <v>2.05</v>
+        <v>0.147</v>
       </c>
       <c r="AN2">
-        <v>0.01708645336963921</v>
+        <v>-1.71900826446281</v>
       </c>
       <c r="AO2">
-        <v>71.46341463414635</v>
+        <v>-10.8843537414966</v>
       </c>
       <c r="AP2">
-        <v>-0.6752212389380531</v>
+        <v>20.59504132231405</v>
       </c>
       <c r="AQ2">
-        <v>71.46341463414635</v>
+        <v>-10.8843537414966</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +722,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.136</v>
-      </c>
-      <c r="E3">
-        <v>0.782</v>
+        <v>-0.602</v>
       </c>
       <c r="G3">
-        <v>-0.00654911838790932</v>
+        <v>33.93939393939394</v>
       </c>
       <c r="H3">
-        <v>-0.00654911838790932</v>
+        <v>33.93939393939394</v>
       </c>
       <c r="I3">
-        <v>0.922544080604534</v>
+        <v>-0.372960372960373</v>
       </c>
       <c r="J3">
-        <v>0.8254694131969451</v>
+        <v>-0.372960372960373</v>
       </c>
       <c r="K3">
-        <v>126.5</v>
+        <v>-5.19</v>
       </c>
       <c r="L3">
-        <v>0.7965994962216624</v>
+        <v>-1.20979020979021</v>
       </c>
       <c r="M3">
-        <v>17.1</v>
+        <v>92.94</v>
       </c>
       <c r="N3">
-        <v>0.07206068268015171</v>
+        <v>0.5830614805520702</v>
       </c>
       <c r="O3">
-        <v>0.1351778656126482</v>
+        <v>-17.90751445086705</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>82.44</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.5171894604767879</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>-15.88439306358381</v>
       </c>
       <c r="S3">
-        <v>17.1</v>
+        <v>10.5</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.1129761136216914</v>
       </c>
       <c r="U3">
-        <v>101.7</v>
+        <v>27</v>
       </c>
       <c r="V3">
-        <v>0.4285714285714285</v>
+        <v>0.1693851944792974</v>
       </c>
       <c r="W3">
-        <v>0.8778625954198473</v>
+        <v>-0.02087691069991955</v>
       </c>
       <c r="X3">
-        <v>0.05352642636329823</v>
+        <v>0.04821709766681308</v>
       </c>
       <c r="Y3">
-        <v>0.8243361690565492</v>
+        <v>-0.06909400836673263</v>
       </c>
       <c r="Z3">
-        <v>1.033181522446324</v>
+        <v>0.02879561823319753</v>
       </c>
       <c r="AA3">
-        <v>0.8528597450596934</v>
+        <v>-0.01073962451587787</v>
       </c>
       <c r="AB3">
-        <v>0.05340153631364352</v>
+        <v>0.04801944750369452</v>
       </c>
       <c r="AC3">
-        <v>0.7994582087460499</v>
+        <v>-0.05875907201957239</v>
       </c>
       <c r="AD3">
-        <v>2.51</v>
+        <v>2.08</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.51</v>
+        <v>2.08</v>
       </c>
       <c r="AG3">
-        <v>-99.19</v>
+        <v>-24.92</v>
       </c>
       <c r="AH3">
-        <v>0.01046661940703057</v>
+        <v>0.01288085211790934</v>
       </c>
       <c r="AI3">
-        <v>0.009995619449643582</v>
+        <v>0.01406545847984852</v>
       </c>
       <c r="AJ3">
-        <v>-0.7181956411556005</v>
+        <v>-0.1853063652587745</v>
       </c>
       <c r="AK3">
-        <v>-0.6638779198179506</v>
+        <v>-0.2061548643282594</v>
       </c>
       <c r="AL3">
-        <v>2.05</v>
+        <v>0.147</v>
       </c>
       <c r="AM3">
-        <v>2.05</v>
+        <v>0.147</v>
       </c>
       <c r="AN3">
-        <v>0.01708645336963921</v>
+        <v>-1.71900826446281</v>
       </c>
       <c r="AO3">
-        <v>71.46341463414635</v>
+        <v>-10.8843537414966</v>
       </c>
       <c r="AP3">
-        <v>-0.6752212389380531</v>
+        <v>20.59504132231405</v>
       </c>
       <c r="AQ3">
-        <v>71.46341463414635</v>
+        <v>-10.8843537414966</v>
       </c>
     </row>
   </sheetData>
